--- a/110_Analyses_Données/Ex_4.xlsx
+++ b/110_Analyses_Données/Ex_4.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Documents\EPSIC\110_Analyses_Données\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4893FCFB-E8AC-46B5-BB09-716976D7FBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F77608E-17FE-49E5-845D-42A29712D805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Données" sheetId="5" r:id="rId1"/>
     <sheet name="Données2" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="9" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="297">
   <si>
     <t>Rayon</t>
   </si>
@@ -913,6 +916,18 @@
   </si>
   <si>
     <t>JasminePalmer@gmail.com</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Nombred'enfants</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
   </si>
 </sst>
 </file>
@@ -946,8 +961,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -963,6 +983,3455 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Ex_4.xlsx]Données!PivotTable3</c:name>
+    <c:fmtId val="18"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Données!$P$2:$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bricolage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Données!$O$4:$O$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Autre</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Célibataire</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Divorcé</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Encouple</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Marié</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Données!$P$4:$P$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-16EA-4E5A-8EEE-5AD2318174F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Données!$Q$2:$Q$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>décoration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Données!$O$4:$O$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Autre</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Célibataire</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Divorcé</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Encouple</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Marié</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Données!$Q$4:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-16EA-4E5A-8EEE-5AD2318174F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Données!$R$2:$R$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>esthétique</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Données!$O$4:$O$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Autre</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Célibataire</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Divorcé</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Encouple</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Marié</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Données!$R$4:$R$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-16EA-4E5A-8EEE-5AD2318174F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Données!$S$2:$S$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>jardin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Données!$O$4:$O$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Autre</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Célibataire</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Divorcé</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Encouple</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Marié</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Données!$S$4:$S$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-16EA-4E5A-8EEE-5AD2318174F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Données!$T$2:$T$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>meubles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Données!$O$4:$O$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Autre</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Célibataire</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Divorcé</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Encouple</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Marié</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Données!$T$4:$T$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-16EA-4E5A-8EEE-5AD2318174F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Données!$U$2:$U$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sport</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Données!$O$4:$O$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Autre</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Célibataire</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Divorcé</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Encouple</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Marié</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Données!$U$4:$U$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-16EA-4E5A-8EEE-5AD2318174F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Données!$V$2:$V$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>téléphonie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Données!$O$4:$O$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Autre</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Célibataire</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Divorcé</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Encouple</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Marié</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Données!$V$4:$V$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-16EA-4E5A-8EEE-5AD2318174F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="861139583"/>
+        <c:axId val="861150143"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="861139583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="861150143"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="861150143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="861139583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F6BAB84-69D4-CA94-4CCE-8E6D64F1C73F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="codex" refreshedDate="45572.410183680557" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="91" xr:uid="{A61E0F39-A603-4077-A030-7D497FEC9EB9}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:M1048576" sheet="Données"/>
+  </cacheSource>
+  <cacheFields count="13">
+    <cacheField name="AdresseMail" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Dated'achat" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Numéroboutique" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
+    </cacheField>
+    <cacheField name="Prixd'achat" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="9" maxValue="498"/>
+    </cacheField>
+    <cacheField name="Rayon" numFmtId="0">
+      <sharedItems containsBlank="1" count="8">
+        <s v="bricolage"/>
+        <s v="décoration"/>
+        <s v="esthétique"/>
+        <s v="jardin"/>
+        <s v="meubles"/>
+        <s v="sport"/>
+        <s v="téléphonie"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Modedepaiement" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Cartedefidélité" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Retourduproduit" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Satisfactionclient(1-10)" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
+    </cacheField>
+    <cacheField name="Clientayantdéjàachetédanslemagasin" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Nomclient" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Statutmarital" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <s v="Marié"/>
+        <s v="Autre"/>
+        <s v="Divorcé"/>
+        <s v="Encouple"/>
+        <s v="Célibataire"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Nombred'enfants" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="7"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="91">
+  <r>
+    <s v="GemmaRush@gmail.com"/>
+    <s v="23/01/2018"/>
+    <n v="6"/>
+    <n v="262"/>
+    <x v="0"/>
+    <s v="cartedecrédit"/>
+    <s v="oui"/>
+    <s v="oui"/>
+    <n v="6"/>
+    <s v="oui"/>
+    <s v="GemmaRush"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="MaryYates@gmail.com"/>
+    <s v="05/06/2018"/>
+    <n v="6"/>
+    <n v="131"/>
+    <x v="0"/>
+    <s v="cartedecrédit"/>
+    <s v="oui"/>
+    <s v="oui"/>
+    <n v="1"/>
+    <s v="oui"/>
+    <s v="MaryYates"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="BertWheeler@gmail.com"/>
+    <s v="15/04/2018"/>
+    <n v="2"/>
+    <n v="209"/>
+    <x v="0"/>
+    <s v="espèces"/>
+    <s v="non"/>
+    <s v="non"/>
+    <n v="2"/>
+    <s v="non"/>
+    <s v="BertWheeler"/>
+    <x v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="JeanetteMoses@gmail.com"/>
+    <s v="20/04/2018"/>
+    <n v="10"/>
+    <n v="162"/>
+    <x v="0"/>
+    <s v="chèque"/>
+    <s v="non"/>
+    <s v="oui"/>
+    <n v="5"/>
+    <s v="non"/>
+    <s v="JeanetteMoses"/>
+    <x v="3"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="LanceDudley@gmail.com"/>
+    <s v="21/12/2018"/>
+    <n v="1"/>
+    <n v="29"/>
+    <x v="0"/>
+    <s v="cartedecrédit"/>
+    <s v="oui"/>
+    <s v="oui"/>
+    <n v="2"/>
+    <s v="oui"/>
+    <s v="LanceDudley"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="IngridCalderon@gmail.com"/>
+    <s v="14/05/2018"/>
+    <n v="7"/>
+    <n v="314"/>
+    <x v="0"/>
+    <s v="chèque"/>
+    <s v="oui"/>
+    <s v="oui"/>
+    <n v="2"/>
+    <s v="non"/>
+    <s v="IngridCalderon"/>
+    <x v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ArdenDoyle@gmail.com"/>
+    <s v="29/11/2018"/>
+    <n v="7"/>
+    <n v="209"/>
+    <x v="0"/>
+    <s v="cartedecrédit"/>
+    <s v="non"/>
+    <s v="non"/>
+    <n v="8"/>
+    <s v="oui"/>
+    <s v="ArdenDoyle"/>
+    <x v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <s v="AristotleRobertson@gmail.com"/>
+    <s v="28/06/2018"/>
+    <n v="10"/>
+    <n v="188"/>
+    <x v="0"/>
+    <s v="espèces"/>
+    <s v="non"/>
+    <s v="oui"/>
+    <n v="8"/>
+    <s v="non"/>
+    <s v="AristotleRobertson"/>
+    <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="RebeccaPaul@gmail.com"/>
+    <s v="12/09/2018"/>
+    <n v="8"/>
+    <n v="394"/>
+    <x v="0"/>
+    <s v="espèces"/>
+    <s v="oui"/>
+    <s v="non"/>
+    <n v="5"/>
+    <s v="non"/>
+    <s v="RebeccaPaul"/>
+    <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="MeghanSnider@gmail.com"/>
+    <s v="02/10/2018"/>
+    <n v="1"/>
+    <n v="105"/>
+    <x v="0"/>
+    <s v="chèque"/>
+    <s v="non"/>
+    <s v="non"/>
+    <n v="9"/>
+    <s v="oui"/>
+    <s v="MeghanSnider"/>
+    <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="ColtHester@gmail.com"/>
+    <s v="20/02/2018"/>
+    <n v="8"/>
+    <n v="194"/>
+    <x v="0"/>
+    <s v="espèces"/>
+    <s v="non"/>
+    <s v="non"/>
+    <n v="10"/>
+    <s v="oui"/>
+    <s v="ColtHester"/>
+    <x v="0"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <s v="SierraKlein@gmail.com"/>
+    <s v="04/06/2018"/>
+    <n v="1"/>
+    <n v="128"/>
+    <x v="0"/>
+    <s v="cartedecrédit"/>
+    <s v="non"/>
+    <s v="oui"/>
+    <n v="2"/>
+    <s v="non"/>
+    <s v="SierraKlein"/>
+    <x v="1"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <s v="MalcolmWebster@gmail.com"/>
+    <s v="01/12/2018"/>
+    <n v="7"/>
+    <n v="136"/>
+    <x v="0"/>
+    <s v="cartedecrédit"/>
+    <s v="oui"/>
+    <s v="oui"/>
+    <n v="2"/>
+    <s v="non"/>
+    <s v="MalcolmWebster"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="GilPickett@gmail.com"/>
+    <s v="13/01/2018"/>
+    <n v="8"/>
+    <n v="203"/>
+    <x v="0"/>
+    <s v="espèces"/>
+    <s v="oui"/>
+    <s v="non"/>
+    <n v="7"/>
+    <s v="oui"/>
+    <s v="GilPickett"/>
+    <x v="3"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <s v="MirandaKramer@gmail.com"/>
+    <s v="08/02/2018"/>
+    <n v="8"/>
+    <n v="184"/>
+    <x v="0"/>
+    <s v="cartedecrédit"/>
+    <s v="oui"/>
+    <s v="oui"/>
+    <n v="10"/>
+    <s v="oui"/>
+    <s v="MirandaKramer"/>
+    <x v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="AubreyCunningham@gmail.com"/>
+    <s v="11/08/2018"/>
+    <n v="4"/>
+    <n v="430"/>
+    <x v="0"/>
+    <s v="espèces"/>
+    <s v="oui"/>
+    <s v="non"/>
+    <n v="6"/>
+    <s v="oui"/>
+    <s v="AubreyCunningham"/>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="KasperKelley@gmail.com"/>
+    <s v="01/06/2018"/>
+    <n v="1"/>
+    <n v="79"/>
+    <x v="0"/>
+    <s v="cartedecrédit"/>
+    <s v="oui"/>
+    <s v="non"/>
+    <n v="8"/>
+    <s v="oui"/>
+    <s v="KasperKelley"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ElvisMcdonald@gmail.com"/>
+    <s v="18/10/2018"/>
+    <n v="8"/>
+    <n v="380"/>
+    <x v="1"/>
+    <s v="espèces"/>
+    <s v="oui"/>
+    <s v="non"/>
+    <n v="4"/>
+    <s v="oui"/>
+    <s v="ElvisMcdonald"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ClintonTrujillo@gmail.com"/>
+    <s v="22/10/2018"/>
+    <n v="7"/>
+    <n v="256"/>
+    <x v="1"/>
+    <s v="cartedecrédit"/>
+    <s v="non"/>
+    <s v="oui"/>
+    <n v="1"/>
+    <s v="oui"/>
+    <s v="ClintonTrujillo"/>
+    <x v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="AudreyRodriquez@gmail.com"/>
+    <s v="15/05/2018"/>
+    <n v="9"/>
+    <n v="139"/>
+    <x v="1"/>
+    <s v="cartedecrédit"/>
+    <s v="non"/>
+    <s v="non"/>
+    <n v="3"/>
+    <s v="non"/>
+    <s v="AudreyRodriquez"/>
+    <x v="1"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <s v="DebraMurray@gmail.com"/>
+    <s v="27/01/2018"/>
+    <n v="2"/>
+    <n v="103"/>
+    <x v="1"/>
+    <s v="cartedecrédit"/>
+    <s v="oui"/>
+    <s v="oui"/>
+    <n v="2"/>
+    <s v="non"/>
+    <s v="DebraMurray"/>
+    <x v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="MelyssaBates@gmail.com"/>
+    <s v="13/09/2018"/>
+    <n v="9"/>
+    <n v="411"/>
+    <x v="1"/>
+    <s v="cartedecrédit"/>
+    <s v="non"/>
+    <s v="oui"/>
+    <n v="8"/>
+    <s v="oui"/>
+    <s v="MelyssaBates"/>
+    <x v="2"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="DamianConner@gmail.com"/>
+    <s v="27/11/2018"/>
+    <n v="9"/>
+    <n v="52"/>
+    <x v="1"/>
+    <s v="cartedecrédit"/>
+    <s v="oui"/>
+    <s v="non"/>
+    <n v="1"/>
+    <s v="oui"/>
+    <s v="DamianConner"/>
+    <x v="4"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="BuckminsterFernandez@gmail.com"/>
+    <s v="23/09/2018"/>
+    <n v="10"/>
+    <n v="472"/>
+    <x v="1"/>
+    <s v="cartedecrédit"/>
+    <s v="oui"/>
+    <s v="non"/>
+    <n v="10"/>
+    <s v="non"/>
+    <s v="BuckminsterFernandez"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="AileenLivingston@gmail.com"/>
+    <s v="03/03/2018"/>
+    <n v="5"/>
+    <n v="220"/>
+    <x v="1"/>
+    <s v="chèque"/>
+    <s v="non"/>
+    <s v="oui"/>
+    <n v="7"/>
+    <s v="oui"/>
+    <s v="AileenLivingston"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="HyacinthOlsen@gmail.com"/>
+    <s v="25/10/2018"/>
+    <n v="1"/>
+    <n v="48"/>
+    <x v="1"/>
+    <s v="chèque"/>
+    <s v="oui"/>
+    <s v="non"/>
+    <n v="6"/>
+    <s v="non"/>
+    <s v="HyacinthOlsen"/>
+    <x v="2"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <s v="MannixPreston@gmail.com"/>
+    <s v="08/01/2018"/>
+    <n v="4"/>
+    <n v="342"/>
+    <x v="1"/>
+    <s v="espèces"/>
+    <s v="non"/>
+    <s v="oui"/>
+    <n v="8"/>
+    <s v="non"/>
+    <s v="MannixPreston"/>
+    <x v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="BrynneAlston@gmail.com"/>
+    <s v="21/05/2018"/>
+    <n v="4"/>
+    <n v="9"/>
+    <x v="2"/>
+    <s v="chèque"/>
+    <s v="oui"/>
+    <s v="non"/>
+    <n v="1"/>
+    <s v="oui"/>
+    <s v="BrynneAlston"/>
+    <x v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="LeonardMerrill@gmail.com"/>
+    <s v="22/07/2018"/>
+    <n v="7"/>
+    <n v="30"/>
+    <x v="2"/>
+    <s v="chèque"/>
+    <s v="oui"/>
+    <s v="oui"/>
+    <n v="2"/>
+    <s v="non"/>
+    <s v="LeonardMerrill"/>
+    <x v="3"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <s v="NoraBurgess@gmail.com"/>
+    <s v="26/06/2018"/>
+    <n v="9"/>
+    <n v="144"/>
+    <x v="2"/>
+    <s v="espèces"/>
+    <s v="oui"/>
+    <s v="oui"/>
+    <n v="10"/>
+    <s v="oui"/>
+    <s v="NoraBurgess"/>
+    <x v="4"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="JennaKing@gmail.com"/>
+    <s v="26/06/2018"/>
+    <n v="4"/>
+    <n v="403"/>
+    <x v="2"/>
+    <s v="espèces"/>
+    <s v="oui"/>
+    <s v="oui"/>
+    <n v="5"/>
+    <s v="non"/>
+    <s v="JennaKing"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="FeliciaHorn@gmail.com"/>
+    <s v="03/01/2018"/>
+    <n v="9"/>
+    <n v="304"/>
+    <x v="2"/>
+    <s v="cartedecrédit"/>
+    <s v="oui"/>
+    <s v="non"/>
+    <n v="1"/>
+    <s v="non"/>
+    <s v="FeliciaHorn"/>
+    <x v="0"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <s v="WhileminaCalderon@gmail.com"/>
+    <s v="10/02/2018"/>
+    <n v="1"/>
+    <n v="117"/>
+    <x v="2"/>
+    <s v="espèces"/>
+    <s v="non"/>
+    <s v="oui"/>
+    <n v="7"/>
+    <s v="non"/>
+    <s v="WhileminaCalderon"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="CandiceDaniel@gmail.com"/>
+    <s v="06/01/2018"/>
+    <n v="3"/>
+    <n v="254"/>
+    <x v="2"/>
+    <s v="espèces"/>
+    <s v="oui"/>
+    <s v="non"/>
+    <n v="5"/>
+    <s v="non"/>
+    <s v="CandiceDaniel"/>
+    <x v="4"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="ChaneyBurgess@gmail.com"/>
+    <s v="29/01/2018"/>
+    <n v="5"/>
+    <n v="40"/>
+    <x v="2"/>
+    <s v="espèces"/>
+    <s v="non"/>
+    <s v="non"/>
+    <n v="2"/>
+    <s v="oui"/>
+    <s v="ChaneyBurgess"/>
+    <x v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="SeanTorres@gmail.com"/>
+    <s v="23/06/2018"/>
+    <n v="6"/>
+    <n v="494"/>
+    <x v="2"/>
+    <s v="cartedecrédit"/>
+    <s v="oui"/>
+    <s v="non"/>
+    <n v="1"/>
+    <s v="non"/>
+    <s v="SeanTorres"/>
+    <x v="2"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <s v="CameranLowe@gmail.com"/>
+    <s v="28/06/2018"/>
+    <n v="10"/>
+    <n v="342"/>
+    <x v="2"/>
+    <s v="cartedecrédit"/>
+    <s v="oui"/>
+    <s v="non"/>
+    <n v="4"/>
+    <s v="oui"/>
+    <s v="CameranLowe"/>
+    <x v="2"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="DanteBass@gmail.com"/>
+    <s v="02/06/2018"/>
+    <n v="3"/>
+    <n v="473"/>
+    <x v="2"/>
+    <s v="cartedecrédit"/>
+    <s v="non"/>
+    <s v="oui"/>
+    <n v="4"/>
+    <s v="oui"/>
+    <s v="DanteBass"/>
+    <x v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="MartinMercer@gmail.com"/>
+    <s v="10/05/2018"/>
+    <n v="10"/>
+    <n v="276"/>
+    <x v="2"/>
+    <s v="chèque"/>
+    <s v="non"/>
+    <s v="oui"/>
+    <n v="4"/>
+    <s v="non"/>
+    <s v="MartinMercer"/>
+    <x v="3"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="YuliStanley@gmail.com"/>
+    <s v="26/10/2018"/>
+    <n v="3"/>
+    <n v="56"/>
+    <x v="2"/>
+    <s v="chèque"/>
+    <s v="non"/>
+    <s v="non"/>
+    <n v="5"/>
+    <s v="non"/>
+    <s v="YuliStanley"/>
+    <x v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <s v="NicholeHerman@gmail.com"/>
+    <s v="22/12/2018"/>
+    <n v="7"/>
+    <n v="386"/>
+    <x v="2"/>
+    <s v="cartedecrédit"/>
+    <s v="non"/>
+    <s v="non"/>
+    <n v="9"/>
+    <s v="oui"/>
+    <s v="NicholeHerman"/>
+    <x v="1"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <s v="AmeliaYang@gmail.com"/>
+    <s v="07/08/2018"/>
+    <n v="3"/>
+    <n v="150"/>
+    <x v="2"/>
+    <s v="cartedecrédit"/>
+    <s v="oui"/>
+    <s v="non"/>
+    <n v="8"/>
+    <s v="oui"/>
+    <s v="AmeliaYang"/>
+    <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="LeroyConley@gmail.com"/>
+    <s v="06/10/2018"/>
+    <n v="4"/>
+    <n v="76"/>
+    <x v="2"/>
+    <s v="chèque"/>
+    <s v="oui"/>
+    <s v="non"/>
+    <n v="8"/>
+    <s v="non"/>
+    <s v="LeroyConley"/>
+    <x v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="ChristianVaughan@gmail.com"/>
+    <s v="05/08/2018"/>
+    <n v="1"/>
+    <n v="397"/>
+    <x v="3"/>
+    <s v="chèque"/>
+    <s v="non"/>
+    <s v="oui"/>
+    <n v="8"/>
+    <s v="non"/>
+    <s v="ChristianVaughan"/>
+    <x v="2"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="KasimirPena@gmail.com"/>
+    <s v="11/03/2018"/>
+    <n v="2"/>
+    <n v="354"/>
+    <x v="3"/>
+    <s v="chèque"/>
+    <s v="non"/>
+    <s v="non"/>
+    <n v="3"/>
+    <s v="oui"/>
+    <s v="KasimirPena"/>
+    <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="AvramRoach@gmail.com"/>
+    <s v="09/09/2018"/>
+    <n v="3"/>
+    <n v="495"/>
+    <x v="3"/>
+    <s v="espèces"/>
+    <s v="non"/>
+    <s v="oui"/>
+    <n v="7"/>
+    <s v="non"/>
+    <s v="AvramRoach"/>
+    <x v="3"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="WalkerHooper@gmail.com"/>
+    <s v="25/02/2018"/>
+    <n v="2"/>
+    <n v="361"/>
+    <x v="3"/>
+    <s v="espèces"/>
+    <s v="oui"/>
+    <s v="non"/>
+    <n v="2"/>
+    <s v="non"/>
+    <s v="WalkerHooper"/>
+    <x v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="OraLarson@gmail.com"/>
+    <s v="02/03/2018"/>
+    <n v="5"/>
+    <n v="290"/>
+    <x v="3"/>
+    <s v="chèque"/>
+    <s v="non"/>
+    <s v="non"/>
+    <n v="3"/>
+    <s v="non"/>
+    <s v="OraLarson"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="TatyanaCarter@gmail.com"/>
+    <s v="01/03/2018"/>
+    <n v="5"/>
+    <n v="424"/>
+    <x v="3"/>
+    <s v="espèces"/>
+    <s v="oui"/>
+    <s v="oui"/>
+    <n v="2"/>
+    <s v="oui"/>
+    <s v="TatyanaCarter"/>
+    <x v="2"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="KadenAguilar@gmail.com"/>
+    <s v="25/02/2018"/>
+    <n v="9"/>
+    <n v="11"/>
+    <x v="3"/>
+    <s v="espèces"/>
+    <s v="oui"/>
+    <s v="oui"/>
+    <n v="6"/>
+    <s v="non"/>
+    <s v="KadenAguilar"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="ElliottVinson@gmail.com"/>
+    <s v="31/07/2018"/>
+    <n v="5"/>
+    <n v="258"/>
+    <x v="3"/>
+    <s v="chèque"/>
+    <s v="oui"/>
+    <s v="non"/>
+    <n v="3"/>
+    <s v="oui"/>
+    <s v="ElliottVinson"/>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="LuneaHolland@gmail.com"/>
+    <s v="24/02/2018"/>
+    <n v="9"/>
+    <n v="423"/>
+    <x v="3"/>
+    <s v="chèque"/>
+    <s v="non"/>
+    <s v="oui"/>
+    <n v="1"/>
+    <s v="non"/>
+    <s v="LuneaHolland"/>
+    <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="DamonEllis@gmail.com"/>
+    <s v="01/10/2018"/>
+    <n v="5"/>
+    <n v="498"/>
+    <x v="3"/>
+    <s v="espèces"/>
+    <s v="oui"/>
+    <s v="oui"/>
+    <n v="8"/>
+    <s v="non"/>
+    <s v="DamonEllis"/>
+    <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="IraDixon@gmail.com"/>
+    <s v="07/09/2018"/>
+    <n v="9"/>
+    <n v="171"/>
+    <x v="4"/>
+    <s v="cartedecrédit"/>
+    <s v="oui"/>
+    <s v="non"/>
+    <n v="2"/>
+    <s v="oui"/>
+    <s v="IraDixon"/>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="ToddMcbride@gmail.com"/>
+    <s v="05/10/2018"/>
+    <n v="1"/>
+    <n v="39"/>
+    <x v="4"/>
+    <s v="chèque"/>
+    <s v="oui"/>
+    <s v="oui"/>
+    <n v="6"/>
+    <s v="oui"/>
+    <s v="ToddMcbride"/>
+    <x v="2"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="HasadSutton@gmail.com"/>
+    <s v="13/07/2018"/>
+    <n v="1"/>
+    <n v="15"/>
+    <x v="4"/>
+    <s v="espèces"/>
+    <s v="non"/>
+    <s v="non"/>
+    <n v="9"/>
+    <s v="non"/>
+    <s v="HasadSutton"/>
+    <x v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="GabrielStevens@gmail.com"/>
+    <s v="18/05/2018"/>
+    <n v="8"/>
+    <n v="170"/>
+    <x v="4"/>
+    <s v="chèque"/>
+    <s v="oui"/>
+    <s v="oui"/>
+    <n v="8"/>
+    <s v="non"/>
+    <s v="GabrielStevens"/>
+    <x v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="ValentineCastillo@gmail.com"/>
+    <s v="16/07/2018"/>
+    <n v="1"/>
+    <n v="352"/>
+    <x v="4"/>
+    <s v="cartedecrédit"/>
+    <s v="oui"/>
+    <s v="non"/>
+    <n v="9"/>
+    <s v="oui"/>
+    <s v="ValentineCastillo"/>
+    <x v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="RobinSullivan@gmail.com"/>
+    <s v="07/04/2018"/>
+    <n v="7"/>
+    <n v="490"/>
+    <x v="4"/>
+    <s v="espèces"/>
+    <s v="non"/>
+    <s v="non"/>
+    <n v="1"/>
+    <s v="oui"/>
+    <s v="RobinSullivan"/>
+    <x v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <s v="XenosSheppard@gmail.com"/>
+    <s v="17/05/2018"/>
+    <n v="10"/>
+    <n v="133"/>
+    <x v="4"/>
+    <s v="espèces"/>
+    <s v="non"/>
+    <s v="non"/>
+    <n v="2"/>
+    <s v="oui"/>
+    <s v="XenosSheppard"/>
+    <x v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="EzraSutton@gmail.com"/>
+    <s v="26/09/2018"/>
+    <n v="1"/>
+    <n v="43"/>
+    <x v="4"/>
+    <s v="chèque"/>
+    <s v="non"/>
+    <s v="oui"/>
+    <n v="2"/>
+    <s v="non"/>
+    <s v="EzraSutton"/>
+    <x v="3"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="LeeHull@gmail.com"/>
+    <s v="22/08/2018"/>
+    <n v="4"/>
+    <n v="219"/>
+    <x v="4"/>
+    <s v="cartedecrédit"/>
+    <s v="oui"/>
+    <s v="non"/>
+    <n v="7"/>
+    <s v="non"/>
+    <s v="LeeHull"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="RhodaRusso@gmail.com"/>
+    <s v="06/09/2018"/>
+    <n v="8"/>
+    <n v="77"/>
+    <x v="4"/>
+    <s v="chèque"/>
+    <s v="oui"/>
+    <s v="non"/>
+    <n v="5"/>
+    <s v="oui"/>
+    <s v="RhodaRusso"/>
+    <x v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="KuameObrien@gmail.com"/>
+    <s v="11/06/2018"/>
+    <n v="1"/>
+    <n v="238"/>
+    <x v="4"/>
+    <s v="chèque"/>
+    <s v="non"/>
+    <s v="oui"/>
+    <n v="6"/>
+    <s v="non"/>
+    <s v="KuameObrien"/>
+    <x v="0"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <s v="SoniaWhitney@gmail.com"/>
+    <s v="16/07/2018"/>
+    <n v="10"/>
+    <n v="326"/>
+    <x v="4"/>
+    <s v="espèces"/>
+    <s v="non"/>
+    <s v="oui"/>
+    <n v="4"/>
+    <s v="oui"/>
+    <s v="SoniaWhitney"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="MaceyMerritt@gmail.com"/>
+    <s v="19/02/2018"/>
+    <n v="8"/>
+    <n v="291"/>
+    <x v="4"/>
+    <s v="cartedecrédit"/>
+    <s v="oui"/>
+    <s v="oui"/>
+    <n v="2"/>
+    <s v="oui"/>
+    <s v="MaceyMerritt"/>
+    <x v="4"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="FlynnVelazquez@gmail.com"/>
+    <s v="22/02/2018"/>
+    <n v="1"/>
+    <n v="490"/>
+    <x v="4"/>
+    <s v="cartedecrédit"/>
+    <s v="oui"/>
+    <s v="oui"/>
+    <n v="8"/>
+    <s v="non"/>
+    <s v="FlynnVelazquez"/>
+    <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="NobleBauer@gmail.com"/>
+    <s v="15/11/2018"/>
+    <n v="4"/>
+    <n v="286"/>
+    <x v="4"/>
+    <s v="chèque"/>
+    <s v="non"/>
+    <s v="oui"/>
+    <n v="1"/>
+    <s v="non"/>
+    <s v="NobleBauer"/>
+    <x v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="ReaganEstrada@gmail.com"/>
+    <s v="29/05/2018"/>
+    <n v="2"/>
+    <n v="441"/>
+    <x v="4"/>
+    <s v="chèque"/>
+    <s v="non"/>
+    <s v="non"/>
+    <n v="6"/>
+    <s v="non"/>
+    <s v="ReaganEstrada"/>
+    <x v="4"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <s v="IngaKramer@gmail.com"/>
+    <s v="22/11/2018"/>
+    <n v="10"/>
+    <n v="366"/>
+    <x v="5"/>
+    <s v="chèque"/>
+    <s v="non"/>
+    <s v="oui"/>
+    <n v="1"/>
+    <s v="oui"/>
+    <s v="IngaKramer"/>
+    <x v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="LinusBradley@gmail.com"/>
+    <s v="25/03/2018"/>
+    <n v="6"/>
+    <n v="241"/>
+    <x v="5"/>
+    <s v="cartedecrédit"/>
+    <s v="oui"/>
+    <s v="non"/>
+    <n v="2"/>
+    <s v="oui"/>
+    <s v="LinusBradley"/>
+    <x v="3"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <s v="CraigRichmond@gmail.com"/>
+    <s v="16/11/2018"/>
+    <n v="10"/>
+    <n v="477"/>
+    <x v="5"/>
+    <s v="espèces"/>
+    <s v="oui"/>
+    <s v="oui"/>
+    <n v="8"/>
+    <s v="oui"/>
+    <s v="CraigRichmond"/>
+    <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="GradyOdonnell@gmail.com"/>
+    <s v="22/04/2018"/>
+    <n v="10"/>
+    <n v="156"/>
+    <x v="5"/>
+    <s v="cartedecrédit"/>
+    <s v="oui"/>
+    <s v="non"/>
+    <n v="7"/>
+    <s v="non"/>
+    <s v="GradyOdonnell"/>
+    <x v="2"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <s v="HayfaTucker@gmail.com"/>
+    <s v="13/10/2018"/>
+    <n v="4"/>
+    <n v="321"/>
+    <x v="5"/>
+    <s v="cartedecrédit"/>
+    <s v="oui"/>
+    <s v="oui"/>
+    <n v="7"/>
+    <s v="non"/>
+    <s v="HayfaTucker"/>
+    <x v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="OliviaHampton@gmail.com"/>
+    <s v="17/10/2018"/>
+    <n v="7"/>
+    <n v="373"/>
+    <x v="5"/>
+    <s v="cartedecrédit"/>
+    <s v="non"/>
+    <s v="non"/>
+    <n v="5"/>
+    <s v="non"/>
+    <s v="OliviaHampton"/>
+    <x v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="RaphaelHicks@gmail.com"/>
+    <s v="07/09/2018"/>
+    <n v="8"/>
+    <n v="149"/>
+    <x v="5"/>
+    <s v="espèces"/>
+    <s v="non"/>
+    <s v="oui"/>
+    <n v="5"/>
+    <s v="non"/>
+    <s v="RaphaelHicks"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="KirbyHarrell@gmail.com"/>
+    <s v="10/03/2018"/>
+    <n v="1"/>
+    <n v="344"/>
+    <x v="5"/>
+    <s v="chèque"/>
+    <s v="oui"/>
+    <s v="oui"/>
+    <n v="3"/>
+    <s v="oui"/>
+    <s v="KirbyHarrell"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="UriahMerritt@gmail.com"/>
+    <s v="01/12/2018"/>
+    <n v="9"/>
+    <n v="300"/>
+    <x v="5"/>
+    <s v="cartedecrédit"/>
+    <s v="oui"/>
+    <s v="oui"/>
+    <n v="7"/>
+    <s v="oui"/>
+    <s v="UriahMerritt"/>
+    <x v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="MelanieCooke@gmail.com"/>
+    <s v="30/06/2018"/>
+    <n v="10"/>
+    <n v="138"/>
+    <x v="5"/>
+    <s v="cartedecrédit"/>
+    <s v="oui"/>
+    <s v="oui"/>
+    <n v="6"/>
+    <s v="oui"/>
+    <s v="MelanieCooke"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="HaleyBarlow@gmail.com"/>
+    <s v="10/10/2018"/>
+    <n v="5"/>
+    <n v="185"/>
+    <x v="5"/>
+    <s v="cartedecrédit"/>
+    <s v="oui"/>
+    <s v="oui"/>
+    <n v="10"/>
+    <s v="non"/>
+    <s v="HaleyBarlow"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="RinaJefferson@gmail.com"/>
+    <s v="17/09/2018"/>
+    <n v="10"/>
+    <n v="152"/>
+    <x v="5"/>
+    <s v="cartedecrédit"/>
+    <s v="oui"/>
+    <s v="oui"/>
+    <n v="10"/>
+    <s v="oui"/>
+    <s v="RinaJefferson"/>
+    <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="XavierSalas@gmail.com"/>
+    <s v="06/05/2018"/>
+    <n v="8"/>
+    <n v="350"/>
+    <x v="5"/>
+    <s v="espèces"/>
+    <s v="non"/>
+    <s v="non"/>
+    <n v="6"/>
+    <s v="non"/>
+    <s v="XavierSalas"/>
+    <x v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="LesleyHuff@gmail.com"/>
+    <s v="15/12/2018"/>
+    <n v="6"/>
+    <n v="60"/>
+    <x v="5"/>
+    <s v="cartedecrédit"/>
+    <s v="oui"/>
+    <s v="non"/>
+    <n v="7"/>
+    <s v="non"/>
+    <s v="LesleyHuff"/>
+    <x v="4"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <s v="LevWhitley@gmail.com"/>
+    <s v="10/08/2018"/>
+    <n v="3"/>
+    <n v="381"/>
+    <x v="6"/>
+    <s v="cartedecrédit"/>
+    <s v="oui"/>
+    <s v="non"/>
+    <n v="6"/>
+    <s v="oui"/>
+    <s v="LevWhitley"/>
+    <x v="4"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="HardingHopkins@gmail.com"/>
+    <s v="19/07/2018"/>
+    <n v="7"/>
+    <n v="419"/>
+    <x v="6"/>
+    <s v="chèque"/>
+    <s v="non"/>
+    <s v="non"/>
+    <n v="10"/>
+    <s v="non"/>
+    <s v="HardingHopkins"/>
+    <x v="3"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="MarshallRosa@gmail.com"/>
+    <s v="04/11/2018"/>
+    <n v="7"/>
+    <n v="340"/>
+    <x v="6"/>
+    <s v="chèque"/>
+    <s v="oui"/>
+    <s v="non"/>
+    <n v="10"/>
+    <s v="oui"/>
+    <s v="MarshallRosa"/>
+    <x v="3"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <s v="IvanDillard@gmail.com"/>
+    <s v="29/11/2018"/>
+    <n v="2"/>
+    <n v="471"/>
+    <x v="6"/>
+    <s v="espèces"/>
+    <s v="non"/>
+    <s v="non"/>
+    <n v="1"/>
+    <s v="non"/>
+    <s v="IvanDillard"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="AllegraSingleton@gmail.com"/>
+    <s v="11/12/2018"/>
+    <n v="8"/>
+    <n v="355"/>
+    <x v="6"/>
+    <s v="chèque"/>
+    <s v="non"/>
+    <s v="non"/>
+    <n v="5"/>
+    <s v="oui"/>
+    <s v="AllegraSingleton"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="SebastianMichael@gmail.com"/>
+    <s v="06/06/2018"/>
+    <n v="7"/>
+    <n v="441"/>
+    <x v="6"/>
+    <s v="cartedecrédit"/>
+    <s v="non"/>
+    <s v="non"/>
+    <n v="7"/>
+    <s v="non"/>
+    <s v="SebastianMichael"/>
+    <x v="0"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <s v="JasminePalmer@gmail.com"/>
+    <s v="18/03/2018"/>
+    <n v="8"/>
+    <n v="161"/>
+    <x v="6"/>
+    <s v="cartedecrédit"/>
+    <s v="non"/>
+    <s v="non"/>
+    <n v="9"/>
+    <s v="oui"/>
+    <s v="JasminePalmer"/>
+    <x v="2"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4BF7451-014E-4D8C-BA39-7F2A562261DA}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+  <location ref="O2:W9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Nombred'enfants" fld="12" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="18" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1228,10 +4697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M91"/>
+  <dimension ref="A1:W91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H32" workbookViewId="0">
-      <selection activeCell="N82" sqref="N82"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,9 +4717,18 @@
     <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>202</v>
       </c>
@@ -1294,7 +4772,7 @@
         <v>Nombred'enfants</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>203</v>
       </c>
@@ -1337,8 +4815,14 @@
         <f>VLOOKUP($A2,Données2!$A$1:$D$91,4,FALSE)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O2" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -1381,8 +4865,35 @@
         <f>VLOOKUP($A3,Données2!$A$1:$D$91,4,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O3" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="P3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>124</v>
+      </c>
+      <c r="R3" t="s">
+        <v>135</v>
+      </c>
+      <c r="S3" t="s">
+        <v>152</v>
+      </c>
+      <c r="T3" t="s">
+        <v>163</v>
+      </c>
+      <c r="U3" t="s">
+        <v>180</v>
+      </c>
+      <c r="V3" t="s">
+        <v>195</v>
+      </c>
+      <c r="W3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>205</v>
       </c>
@@ -1425,8 +4936,35 @@
         <f>VLOOKUP($A4,Données2!$A$1:$D$91,4,FALSE)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>12</v>
+      </c>
+      <c r="R4" s="1">
+        <v>13</v>
+      </c>
+      <c r="S4" s="1">
+        <v>3</v>
+      </c>
+      <c r="T4" s="1">
+        <v>7</v>
+      </c>
+      <c r="U4" s="1">
+        <v>5</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>206</v>
       </c>
@@ -1469,8 +5007,35 @@
         <f>VLOOKUP($A5,Données2!$A$1:$D$91,4,FALSE)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>3</v>
+      </c>
+      <c r="R5" s="1">
+        <v>8</v>
+      </c>
+      <c r="S5" s="1">
+        <v>2</v>
+      </c>
+      <c r="T5" s="1">
+        <v>9</v>
+      </c>
+      <c r="U5" s="1">
+        <v>6</v>
+      </c>
+      <c r="V5" s="1">
+        <v>2</v>
+      </c>
+      <c r="W5" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>207</v>
       </c>
@@ -1513,8 +5078,35 @@
         <f>VLOOKUP($A6,Données2!$A$1:$D$91,4,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>11</v>
+      </c>
+      <c r="R6" s="1">
+        <v>16</v>
+      </c>
+      <c r="S6" s="1">
+        <v>8</v>
+      </c>
+      <c r="T6" s="1">
+        <v>7</v>
+      </c>
+      <c r="U6" s="1">
+        <v>7</v>
+      </c>
+      <c r="V6" s="1">
+        <v>7</v>
+      </c>
+      <c r="W6" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>208</v>
       </c>
@@ -1557,8 +5149,35 @@
         <f>VLOOKUP($A7,Données2!$A$1:$D$91,4,FALSE)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P7" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>6</v>
+      </c>
+      <c r="R7" s="1">
+        <v>15</v>
+      </c>
+      <c r="S7" s="1">
+        <v>5</v>
+      </c>
+      <c r="T7" s="1">
+        <v>13</v>
+      </c>
+      <c r="U7" s="1">
+        <v>13</v>
+      </c>
+      <c r="V7" s="1">
+        <v>11</v>
+      </c>
+      <c r="W7" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -1601,8 +5220,35 @@
         <f>VLOOKUP($A8,Données2!$A$1:$D$91,4,FALSE)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="1">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>2</v>
+      </c>
+      <c r="R8" s="1">
+        <v>13</v>
+      </c>
+      <c r="S8" s="1">
+        <v>12</v>
+      </c>
+      <c r="T8" s="1">
+        <v>22</v>
+      </c>
+      <c r="U8" s="1">
+        <v>9</v>
+      </c>
+      <c r="V8" s="1">
+        <v>7</v>
+      </c>
+      <c r="W8" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>210</v>
       </c>
@@ -1645,8 +5291,35 @@
         <f>VLOOKUP($A9,Données2!$A$1:$D$91,4,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O9" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="P9" s="1">
+        <v>49</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>34</v>
+      </c>
+      <c r="R9" s="1">
+        <v>65</v>
+      </c>
+      <c r="S9" s="1">
+        <v>30</v>
+      </c>
+      <c r="T9" s="1">
+        <v>58</v>
+      </c>
+      <c r="U9" s="1">
+        <v>40</v>
+      </c>
+      <c r="V9" s="1">
+        <v>27</v>
+      </c>
+      <c r="W9" s="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>211</v>
       </c>
@@ -1690,7 +5363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>212</v>
       </c>
@@ -1734,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>213</v>
       </c>
@@ -1778,7 +5451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>214</v>
       </c>
@@ -1822,7 +5495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>215</v>
       </c>
@@ -1866,7 +5539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>216</v>
       </c>
@@ -1910,7 +5583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>217</v>
       </c>
@@ -5256,6 +8929,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
